--- a/CASUAL/LA CENRO CITY HALL BASED/MARDO, MELINDA ESPIRITU.xlsx
+++ b/CASUAL/LA CENRO CITY HALL BASED/MARDO, MELINDA ESPIRITU.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CENRO CITY HALL BASED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CENRO CITY HALL BASED\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFED669-1021-48BA-9D23-260A38287275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE EARN'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="120">
   <si>
     <t>PERIOD</t>
   </si>
@@ -402,7 +403,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -784,17 +785,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -804,6 +802,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1334,7 +1335,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1378,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1442,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1502,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1568,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1631,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1729,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1788,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1853,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1896,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +1971,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2157,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2223,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2281,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2347,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2403,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2478,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2521,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2587,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,7 +2643,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2722,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2738,25 +2739,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K136" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K136" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2768,25 +2769,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3093,7 +3094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3103,7 +3104,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3111,34 +3112,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A83" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3150,16 +3151,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3168,16 +3169,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3188,18 +3189,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3207,7 +3208,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3220,24 +3221,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3281,7 +3282,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>60.878999999999998</v>
+        <v>58.378999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3291,12 +3292,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>88.75</v>
+        <v>90.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3318,7 +3319,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3338,7 +3339,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3358,7 +3359,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3378,7 +3379,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3398,7 +3399,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3418,7 +3419,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3438,7 +3439,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3458,7 +3459,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3478,7 +3479,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3498,7 +3499,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3518,7 +3519,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3538,7 +3539,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3562,7 +3563,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -3580,7 +3581,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3600,7 +3601,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3620,7 +3621,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3640,7 +3641,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3660,7 +3661,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3680,7 +3681,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3700,7 +3701,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3720,7 +3721,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3740,7 +3741,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3760,7 +3761,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3780,7 +3781,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3800,7 +3801,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3824,7 +3825,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>47</v>
       </c>
@@ -3842,7 +3843,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3862,7 +3863,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3882,7 +3883,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3902,7 +3903,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3922,7 +3923,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3942,7 +3943,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3962,7 +3963,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3982,7 +3983,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4002,7 +4003,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4022,7 +4023,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4042,7 +4043,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4062,7 +4063,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4086,7 +4087,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>48</v>
       </c>
@@ -4104,7 +4105,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4124,7 +4125,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4144,7 +4145,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4164,7 +4165,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4184,7 +4185,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4204,7 +4205,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4224,7 +4225,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4244,7 +4245,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4264,7 +4265,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4284,7 +4285,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4304,7 +4305,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4324,7 +4325,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4348,7 +4349,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>49</v>
       </c>
@@ -4366,7 +4367,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4386,7 +4387,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4406,7 +4407,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4430,7 +4431,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4454,7 +4455,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4478,7 +4479,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4502,7 +4503,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4526,7 +4527,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4550,7 +4551,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4574,7 +4575,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4598,7 +4599,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4622,7 +4623,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4646,7 +4647,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>100</v>
@@ -4666,7 +4667,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>78</v>
       </c>
@@ -4684,7 +4685,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44927</v>
       </c>
@@ -4704,7 +4705,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44958</v>
       </c>
@@ -4724,7 +4725,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44986</v>
       </c>
@@ -4744,7 +4745,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45017</v>
       </c>
@@ -4764,7 +4765,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45047</v>
       </c>
@@ -4784,7 +4785,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45078</v>
       </c>
@@ -4804,7 +4805,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="49"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45108</v>
       </c>
@@ -4824,7 +4825,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45139</v>
       </c>
@@ -4844,7 +4845,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45170</v>
       </c>
@@ -4864,7 +4865,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45200</v>
       </c>
@@ -4884,7 +4885,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45231</v>
       </c>
@@ -4904,25 +4905,31 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45261</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="39"/>
+      <c r="B88" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D88" s="39">
+        <v>5</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
         <v>118</v>
       </c>
@@ -4940,29 +4947,33 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45292</v>
       </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45323</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -4971,12 +4982,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="49">
+        <v>45333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45352</v>
       </c>
@@ -4994,7 +5009,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45383</v>
       </c>
@@ -5012,7 +5027,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45413</v>
       </c>
@@ -5030,7 +5045,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45444</v>
       </c>
@@ -5048,7 +5063,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45474</v>
       </c>
@@ -5066,7 +5081,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45505</v>
       </c>
@@ -5084,7 +5099,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45536</v>
       </c>
@@ -5102,7 +5117,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45566</v>
       </c>
@@ -5120,7 +5135,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45597</v>
       </c>
@@ -5138,7 +5153,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5154,7 +5169,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5170,7 +5185,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5186,7 +5201,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5202,7 +5217,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5218,7 +5233,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5234,7 +5249,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5250,7 +5265,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5266,7 +5281,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5282,7 +5297,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5298,7 +5313,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5314,7 +5329,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5330,7 +5345,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5346,7 +5361,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5362,7 +5377,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5378,7 +5393,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5394,7 +5409,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5410,7 +5425,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5426,7 +5441,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5442,7 +5457,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5458,7 +5473,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5474,7 +5489,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5490,7 +5505,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5506,7 +5521,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5522,7 +5537,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5538,7 +5553,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5554,7 +5569,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5570,7 +5585,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5586,7 +5601,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5602,7 +5617,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5618,7 +5633,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5634,7 +5649,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5650,7 +5665,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5666,7 +5681,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5682,7 +5697,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5698,7 +5713,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
@@ -5716,23 +5731,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5755,34 +5770,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A86" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="B3:K8"/>
-      <selection pane="bottomLeft" activeCell="K104" sqref="K104"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5794,16 +5809,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5812,16 +5827,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5832,18 +5847,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5851,7 +5866,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5864,24 +5879,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5916,7 +5931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5940,7 +5955,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5962,7 +5977,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5984,7 +5999,7 @@
         <v>43125</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -6008,7 +6023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>54</v>
@@ -6030,7 +6045,7 @@
         <v>43145</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -6054,7 +6069,7 @@
         <v>43176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -6076,7 +6091,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>54</v>
@@ -6098,7 +6113,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43221</v>
       </c>
@@ -6122,7 +6137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -6146,7 +6161,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -6170,7 +6185,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>58</v>
@@ -6192,7 +6207,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>56</v>
@@ -6214,7 +6229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -6238,7 +6253,7 @@
         <v>43328</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -6262,7 +6277,7 @@
         <v>43379</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>54</v>
@@ -6284,7 +6299,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>46</v>
       </c>
@@ -6302,7 +6317,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43466</v>
       </c>
@@ -6324,7 +6339,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43497</v>
       </c>
@@ -6348,7 +6363,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -6370,7 +6385,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>52</v>
@@ -6392,7 +6407,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>52</v>
@@ -6414,7 +6429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>54</v>
@@ -6436,7 +6451,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43586</v>
       </c>
@@ -6460,7 +6475,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>54</v>
@@ -6482,7 +6497,7 @@
         <v>43600</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43617</v>
       </c>
@@ -6506,7 +6521,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>54</v>
@@ -6528,7 +6543,7 @@
         <v>43638</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43678</v>
       </c>
@@ -6552,7 +6567,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>54</v>
@@ -6574,7 +6589,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43709</v>
       </c>
@@ -6598,7 +6613,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43739</v>
       </c>
@@ -6622,7 +6637,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>55</v>
@@ -6644,7 +6659,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43770</v>
       </c>
@@ -6666,7 +6681,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>47</v>
       </c>
@@ -6684,7 +6699,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43831</v>
       </c>
@@ -6706,7 +6721,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43891</v>
       </c>
@@ -6730,7 +6745,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44166</v>
       </c>
@@ -6754,7 +6769,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -6776,7 +6791,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>48</v>
       </c>
@@ -6794,7 +6809,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44197</v>
       </c>
@@ -6816,7 +6831,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44228</v>
       </c>
@@ -6840,7 +6855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>54</v>
@@ -6862,7 +6877,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44287</v>
       </c>
@@ -6884,7 +6899,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44470</v>
       </c>
@@ -6906,7 +6921,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>49</v>
       </c>
@@ -6924,7 +6939,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44562</v>
       </c>
@@ -6946,7 +6961,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44593</v>
       </c>
@@ -6970,7 +6985,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>55</v>
@@ -6992,7 +7007,7 @@
         <v>44609</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44805</v>
       </c>
@@ -7016,7 +7031,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44835</v>
       </c>
@@ -7040,7 +7055,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>56</v>
@@ -7062,7 +7077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>74</v>
@@ -7084,7 +7099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44866</v>
       </c>
@@ -7108,7 +7123,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>76</v>
@@ -7130,7 +7145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>78</v>
       </c>
@@ -7148,7 +7163,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44927</v>
       </c>
@@ -7172,7 +7187,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>51</v>
@@ -7192,7 +7207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44958</v>
       </c>
@@ -7216,7 +7231,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44986</v>
       </c>
@@ -7240,7 +7255,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>55</v>
@@ -7262,7 +7277,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>76</v>
@@ -7284,7 +7299,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>45017</v>
       </c>
@@ -7308,7 +7323,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>51</v>
@@ -7328,7 +7343,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>54</v>
@@ -7350,7 +7365,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>54</v>
@@ -7372,7 +7387,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>56</v>
@@ -7394,7 +7409,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>55</v>
@@ -7416,7 +7431,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>52</v>
@@ -7438,7 +7453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>45047</v>
       </c>
@@ -7462,7 +7477,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>85</v>
@@ -7484,7 +7499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>56</v>
@@ -7506,7 +7521,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>54</v>
@@ -7528,7 +7543,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>88</v>
@@ -7550,7 +7565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45078</v>
       </c>
@@ -7574,7 +7589,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>90</v>
@@ -7596,7 +7611,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45103</v>
       </c>
@@ -7620,7 +7635,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45108</v>
       </c>
@@ -7644,7 +7659,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>54</v>
@@ -7666,7 +7681,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45139</v>
       </c>
@@ -7690,7 +7705,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>56</v>
@@ -7712,7 +7727,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>52</v>
@@ -7734,7 +7749,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45170</v>
       </c>
@@ -7758,7 +7773,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>56</v>
@@ -7780,7 +7795,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>76</v>
@@ -7802,7 +7817,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>56</v>
@@ -7824,7 +7839,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45200</v>
       </c>
@@ -7848,7 +7863,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>54</v>
@@ -7870,7 +7885,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>55</v>
@@ -7892,7 +7907,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>56</v>
@@ -7914,7 +7929,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45231</v>
       </c>
@@ -7938,7 +7953,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45241</v>
       </c>
@@ -7962,7 +7977,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>54</v>
@@ -7984,7 +7999,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45260</v>
       </c>
@@ -8008,7 +8023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>54</v>
@@ -8030,7 +8045,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>90</v>
@@ -8052,7 +8067,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45261</v>
       </c>
@@ -8076,7 +8091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8092,7 +8107,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8108,7 +8123,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8124,7 +8139,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8140,7 +8155,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8156,7 +8171,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8172,7 +8187,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8188,7 +8203,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8204,7 +8219,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8220,7 +8235,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8236,7 +8251,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8252,7 +8267,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8268,7 +8283,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8284,7 +8299,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8300,7 +8315,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8316,7 +8331,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8332,7 +8347,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8348,7 +8363,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8364,7 +8379,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8380,7 +8395,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8396,7 +8411,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8412,7 +8427,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8428,7 +8443,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8444,7 +8459,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8460,7 +8475,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8476,7 +8491,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8507,10 +8522,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8533,28 +8548,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -8567,7 +8582,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8596,7 +8611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>117.875</v>
       </c>
@@ -8624,17 +8639,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8655,7 +8670,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8682,7 +8697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8708,7 +8723,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8734,7 +8749,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8760,7 +8775,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8786,7 +8801,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8812,7 +8827,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8838,7 +8853,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8864,7 +8879,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8884,7 +8899,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8904,7 +8919,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8924,7 +8939,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8945,7 +8960,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8966,7 +8981,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8987,7 +9002,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9008,7 +9023,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9029,7 +9044,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9050,7 +9065,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9071,7 +9086,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9092,7 +9107,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9113,7 +9128,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9134,7 +9149,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9155,7 +9170,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9176,7 +9191,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9197,7 +9212,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9218,7 +9233,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9239,7 +9254,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9260,7 +9275,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9281,7 +9296,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9302,7 +9317,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9323,7 +9338,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9344,7 +9359,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9353,7 +9368,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9362,7 +9377,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9371,7 +9386,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9380,7 +9395,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9389,7 +9404,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9398,7 +9413,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9407,7 +9422,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9416,7 +9431,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9425,7 +9440,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9434,7 +9449,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9443,7 +9458,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9452,7 +9467,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9461,7 +9476,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9470,7 +9485,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9479,7 +9494,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9488,7 +9503,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9497,7 +9512,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9506,7 +9521,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9515,7 +9530,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9524,7 +9539,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9533,7 +9548,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9542,7 +9557,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9551,7 +9566,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9560,7 +9575,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9569,7 +9584,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9578,7 +9593,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9587,7 +9602,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9596,7 +9611,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9605,7 +9620,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
